--- a/biology/Botanique/Caryopteris/Caryopteris.xlsx
+++ b/biology/Botanique/Caryopteris/Caryopteris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Caryopteris regroupe 16 espèces de plantes de la famille des Verbénacées originaires de l'Asie de l'Est et de l'Asie centrale.
 Les recherches phylogénétiques récentes ont conduit à le positionner dans la famille des Lamiacées.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des plantes herbacées de 1 m à 1,5 m de hauteur[1], des sous-arbrisseaux ou des arbustes, dressés ou grimpants. Les feuilles sont simples et opposées, à marge entière ou dentée, souvent glanduleuses. Les fleurs sont généralement réunies en cymes ou en thyrses.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des plantes herbacées de 1 m à 1,5 m de hauteur, des sous-arbrisseaux ou des arbustes, dressés ou grimpants. Les feuilles sont simples et opposées, à marge entière ou dentée, souvent glanduleuses. Les fleurs sont généralement réunies en cymes ou en thyrses.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Caryopteris aureoglandulosa (Vaniot) C. Y. Wu
 Caryopteris bicolor (Roxburgh ex Hardwicke) Mabberley
@@ -588,7 +604,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines espèces sont cultivées comme plantes ornementales, notamment Caryopteris ×clandonensis, un hybride issu du croisement de C. incana et de C. mongholica, dont il existe plusieurs cultivars.
 </t>
